--- a/helpsTool/src/test/resources/testCases/helpsToolDocUploadTC.xlsx
+++ b/helpsTool/src/test/resources/testCases/helpsToolDocUploadTC.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vnsny-my.sharepoint.com/personal/802072_vnshealth_org/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\helpsToolUploadDocs\helpsTool\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA2F5568-92F7-4DB2-A28E-0E050364241D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8511DCD5-42B7-4C7D-B3D5-1BA2A9AFEA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1990" yWindow="0" windowWidth="8830" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="1" r:id="rId1"/>
     <sheet name="TC01" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
   <si>
     <t>ObjectType</t>
   </si>
@@ -74,9 +73,6 @@
     <t>TS02</t>
   </si>
   <si>
-    <t>https://helps.vnshealth-test.mso.vnsny.org/ </t>
-  </si>
-  <si>
     <t>Open Login Page</t>
   </si>
   <si>
@@ -152,9 +148,6 @@
     <t>Draw</t>
   </si>
   <si>
-    <t>//button[normalize-space()='Accept signature']</t>
-  </si>
-  <si>
     <t>Click Accept Signature</t>
   </si>
   <si>
@@ -224,26 +217,104 @@
     <t>TS14</t>
   </si>
   <si>
-    <t xml:space="preserve">Select Sign Out </t>
-  </si>
-  <si>
-    <t>Pick an Account</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>(//img[@role='presentation'])[1]</t>
-  </si>
-  <si>
     <t>TS15</t>
+  </si>
+  <si>
+    <t>https://helps.vnshealth-test.mso.vnsny.org</t>
+  </si>
+  <si>
+    <t>Enter Username</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>//input[@type='email']</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t>//input[@type='password']</t>
+  </si>
+  <si>
+    <t>TS16</t>
+  </si>
+  <si>
+    <t>TS17</t>
+  </si>
+  <si>
+    <t>//input[@id='idBtn_Back']</t>
+  </si>
+  <si>
+    <t>//input[@type='submit']</t>
+  </si>
+  <si>
+    <t>Click Next</t>
+  </si>
+  <si>
+    <t>TS18</t>
+  </si>
+  <si>
+    <t>Click Sign in</t>
+  </si>
+  <si>
+    <t>TS19</t>
+  </si>
+  <si>
+    <t>Helpsautotest@vnshealth.org</t>
+  </si>
+  <si>
+    <t>Letmein!@2023!</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'Submit')]</t>
+  </si>
+  <si>
+    <t>Click Submit Button</t>
+  </si>
+  <si>
+    <t>TS20</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Final Recommendation')]</t>
+  </si>
+  <si>
+    <t>Click Final Recommendation</t>
+  </si>
+  <si>
+    <t>TS21</t>
+  </si>
+  <si>
+    <t>//button[contains(text(), 'Accept signature')]</t>
+  </si>
+  <si>
+    <t>//input[@id='idSIButton9']</t>
+  </si>
+  <si>
+    <t>Click Yes</t>
+  </si>
+  <si>
+    <t>TS22</t>
+  </si>
+  <si>
+    <t>TS23</t>
+  </si>
+  <si>
+    <t>Click Use Another Account</t>
+  </si>
+  <si>
+    <t>//div[contains(text(), 'Use another account')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Sign Out </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +335,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -321,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -334,7 +411,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -343,6 +419,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -645,10 +725,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -660,10 +740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9327E446-000E-48FF-8238-1345EB9443AE}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -673,13 +753,13 @@
     <col min="3" max="3" width="11.36328125" customWidth="1"/>
     <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.453125" customWidth="1"/>
     <col min="8" max="8" width="54.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -702,358 +782,542 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="G21" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="6"/>
+      <c r="G22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://nam04.safelinks.protection.outlook.com/?url=https%3a%2f%2fhelps.vnshealth-test.mso.vnsny.org%2f&amp;data=05%7c01%7caqif.malik%40vnshealth.org%7cfc4072c7d3764b95ac0a08db830a260c%7cd38bbf0078ed4dd8a065ba61877b4f50%7c1%7c0%7c638247851877461768%7cunknown%" display="https://nam04.safelinks.protection.outlook.com/?url=https%3A%2F%2Fhelps.vnshealth-test.mso.vnsny.org%2F&amp;data=05%7C01%7Caqif.malik%40vnshealth.org%7Cfc4072c7d3764b95ac0a08db830a260c%7Cd38bbf0078ed4dd8a065ba61877b4f50%7C1%7C0%7C638247851877461768%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=qWM%2FiG18n7LcMtUQOfHwHdBizn%2BI2ziHY%2F6YTF1XH9A%3D&amp;reserved=0" xr:uid="{87B80880-47BD-4EFD-9188-1B784216906F}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{055300D9-D52B-4847-BC7E-5DEA42FD8396}"/>
+    <hyperlink ref="G4" r:id="rId2" tooltip="mailto:helpsautotest@vnshealth.org" display="mailto:Helpsautotest@vnshealth.org" xr:uid="{D6F3EE36-6A95-4903-9443-09B43469C4FC}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{78C05632-64B1-488B-AFD8-50E928A01EDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/helpsTool/src/test/resources/testCases/helpsToolDocUploadTC.xlsx
+++ b/helpsTool/src/test/resources/testCases/helpsToolDocUploadTC.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\helpsToolUploadDocs\helpsTool\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8511DCD5-42B7-4C7D-B3D5-1BA2A9AFEA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE1DFB-B438-4A0F-B988-AA41371C6B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="1" r:id="rId1"/>
-    <sheet name="TC01" sheetId="2" r:id="rId2"/>
+    <sheet name="TC" sheetId="2" r:id="rId2"/>
+    <sheet name="TC09" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="384">
   <si>
     <t>ObjectType</t>
   </si>
@@ -55,9 +56,6 @@
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Verify Upload Document</t>
-  </si>
-  <si>
     <t>Test Steps ID</t>
   </si>
   <si>
@@ -130,12 +128,6 @@
     <t>Select and Upload File</t>
   </si>
   <si>
-    <t>Select/Upload</t>
-  </si>
-  <si>
-    <t>Copy/Paste Path</t>
-  </si>
-  <si>
     <t>Draw Signature</t>
   </si>
   <si>
@@ -298,9 +290,6 @@
     <t>TS22</t>
   </si>
   <si>
-    <t>TS23</t>
-  </si>
-  <si>
     <t>Click Use Another Account</t>
   </si>
   <si>
@@ -308,6 +297,894 @@
   </si>
   <si>
     <t xml:space="preserve">Click Sign Out </t>
+  </si>
+  <si>
+    <t>TS03A</t>
+  </si>
+  <si>
+    <t>Sample 2</t>
+  </si>
+  <si>
+    <t>Sample 1</t>
+  </si>
+  <si>
+    <t>Sample 3</t>
+  </si>
+  <si>
+    <t>Sample 4</t>
+  </si>
+  <si>
+    <t>Sample 5</t>
+  </si>
+  <si>
+    <t>Sample 6</t>
+  </si>
+  <si>
+    <t>Sample 7</t>
+  </si>
+  <si>
+    <t>Sample 8</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Use Robert class to copy and paste path</t>
+  </si>
+  <si>
+    <t>C:\Users\802072\git\helpsToolUploadDocs\helpsTool\src\test\resources\sampleUploadDocuments\QA Test ID 1 Sample CHA.xls</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>C:\Users\802072\git\helpsToolUploadDocs\helpsTool\src\test\resources\sampleUploadDocuments\QA Test ID 2 Sample CHA.xls</t>
+  </si>
+  <si>
+    <t>C:\Users\802072\git\helpsToolUploadDocs\helpsTool\src\test\resources\sampleUploadDocuments\QA Test ID 3 Sample CHA.xls</t>
+  </si>
+  <si>
+    <t>C:\Users\802072\git\helpsToolUploadDocs\helpsTool\src\test\resources\sampleUploadDocuments\QA Test ID 4 Sample CHA.xls</t>
+  </si>
+  <si>
+    <t>C:\Users\802072\git\helpsToolUploadDocs\helpsTool\src\test\resources\sampleUploadDocuments\QA Test ID 5 Sample CHA.xls</t>
+  </si>
+  <si>
+    <t>C:\Users\802072\git\helpsToolUploadDocs\helpsTool\src\test\resources\sampleUploadDocuments\QA Test ID 6 Sample CHA.xls</t>
+  </si>
+  <si>
+    <t>C:\Users\802072\git\helpsToolUploadDocs\helpsTool\src\test\resources\sampleUploadDocuments\QA Test ID 7 Sample CHA.xls</t>
+  </si>
+  <si>
+    <t>C:\Users\802072\git\helpsToolUploadDocs\helpsTool\src\test\resources\sampleUploadDocuments\QA Test ID 8 Sample CHA.xls</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>Verify Upload Sample 1</t>
+  </si>
+  <si>
+    <t>Verify Upload Sample 2</t>
+  </si>
+  <si>
+    <t>Verify Upload Sample 3</t>
+  </si>
+  <si>
+    <t>Verify Upload Sample 4</t>
+  </si>
+  <si>
+    <t>Verify Upload Sample 5</t>
+  </si>
+  <si>
+    <t>Verify Upload Sample 6</t>
+  </si>
+  <si>
+    <t>Verify Upload Sample 7</t>
+  </si>
+  <si>
+    <t>Verify Upload Sample 8</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>Patient Information</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>Verify Data Displayed After Sample 1 Upload</t>
+  </si>
+  <si>
+    <t>Verify Data Displayed After Sample 2 Upload</t>
+  </si>
+  <si>
+    <t>Verify First Name</t>
+  </si>
+  <si>
+    <t>Verify Medicaid ID</t>
+  </si>
+  <si>
+    <t>Verify NFLOC</t>
+  </si>
+  <si>
+    <t>Verify Nurse Assessor</t>
+  </si>
+  <si>
+    <t>Verify Assessment Reason</t>
+  </si>
+  <si>
+    <t>UAS Assessment Details</t>
+  </si>
+  <si>
+    <t>First Name field in the HELPS UI should display "QA Test"</t>
+  </si>
+  <si>
+    <t>Last Name field in the HELPS UI should display "ID"</t>
+  </si>
+  <si>
+    <t>Medicaid ID field in the HELPS UI should display "12345"</t>
+  </si>
+  <si>
+    <t>NFLOC field in the HELPS UI should display "22"</t>
+  </si>
+  <si>
+    <t>Date of Assessment field in the HELPS UI should display "11/07/22"</t>
+  </si>
+  <si>
+    <t>Nurse Assessor field in the HELPS UI should display "QA Nurse"</t>
+  </si>
+  <si>
+    <t>Assessment Reason field in the HELPS UI should display "First Assessment"</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Select Yes from Mutual Case Dropdown</t>
+  </si>
+  <si>
+    <t>Mutual Case field in the HELPS UI should display "Yes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type '12345' into the Mutual Case Medicaid ID field. </t>
+  </si>
+  <si>
+    <t>Mutual Case Medicaid ID field in the HELPS UI should display "12345"</t>
+  </si>
+  <si>
+    <t>Cognitive Skills dropdown should display "Independent - decisions consistent, reasonable and safe"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wandering dropdown should display "Not Present" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbal Abuse dropdown should display "Not Present" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical Abuse dropdown should display "Not Present" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socially inappropriate or disruptive behavior dropdown should display "Not Present" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inappropriate public sexual behavior or public disrobing dropdown should display "Not Present" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist Care dropdown should display "Not Present" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychiatric Anxiety dropdown should display "Not Present" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychiatric Depression dropdown should display "Not Present" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychiatric Schizophrenia dropdown should display "Not Present" </t>
+  </si>
+  <si>
+    <t>Dyspnea dropdown should display "Absence of symptom"</t>
+  </si>
+  <si>
+    <t>Fatigue dropdown should display "None"</t>
+  </si>
+  <si>
+    <t>Pain dropdown should display "No Issue of Pain"</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>IADL - Capacity</t>
+  </si>
+  <si>
+    <t>Meal Preparation dropdown should display "Independent - no help, setup, or supervision"</t>
+  </si>
+  <si>
+    <t>Meal Preparation Weekly Total Minutes should display "0"</t>
+  </si>
+  <si>
+    <t>Ordinary Housework dropdown should display "Independent - no help, setup, or supervision"</t>
+  </si>
+  <si>
+    <t>Ordinary Housework Weekly Total Minutes should display "0"</t>
+  </si>
+  <si>
+    <t>Shopping dropdown should display "Independent - no help, setup, or supervision"</t>
+  </si>
+  <si>
+    <t>Shopping Weekly Total Minutes should display "0"</t>
+  </si>
+  <si>
+    <t>ADL - Self Performance</t>
+  </si>
+  <si>
+    <t>Bathing dropdown should display "Independent - no physical assistance, setup, or supervision in any episode"</t>
+  </si>
+  <si>
+    <t>Bathing Mins per day should display "0"</t>
+  </si>
+  <si>
+    <t>Bathing Total Minutes should display "0"</t>
+  </si>
+  <si>
+    <t>Personal Hygiene dropdown should display "Independent - no physical assistance, setup, or supervision in any episode"</t>
+  </si>
+  <si>
+    <t>Personal Hygiene Mins per day should display "0"</t>
+  </si>
+  <si>
+    <t>Personal Hygiene Total Minutes should display "0"</t>
+  </si>
+  <si>
+    <t>Dressing Upper Body dropdown should display "Independent - no physical assistance, setup, or supervision in any episode"</t>
+  </si>
+  <si>
+    <t>Dressing Upper Body Mins per day should display "0"</t>
+  </si>
+  <si>
+    <t>Dressing Upper Body Total Minutes should display "0"</t>
+  </si>
+  <si>
+    <t>Dressing Lower Body dropdown should display "Independent - no physical assistance, setup, or supervision in any episode"</t>
+  </si>
+  <si>
+    <t>Dressing Lower Body Mins per day should display "0"</t>
+  </si>
+  <si>
+    <t>Dressing Lower Body Total Minutes should display "0"</t>
+  </si>
+  <si>
+    <t>Locomotion dropdown should display "Independent - no physical assistance, setup, or supervision in any episode"</t>
+  </si>
+  <si>
+    <t>Locomotion Mins per day should display "0"</t>
+  </si>
+  <si>
+    <t>Locomotion Total Minutes should display "0"</t>
+  </si>
+  <si>
+    <t>Transfer Toilet dropdown should display "Independent - no physical assistance, setup, or supervision in any episode"</t>
+  </si>
+  <si>
+    <t>Transfer Toilet Mins per day should display "0"</t>
+  </si>
+  <si>
+    <t>Transfer Toilet Total Minutes should display "0"</t>
+  </si>
+  <si>
+    <t>Toileting dropdown should display "Independent - no physical assistance, setup, or supervision in any episode"</t>
+  </si>
+  <si>
+    <t>Toileting Mins per day should display "0"</t>
+  </si>
+  <si>
+    <t>Toileting Total Minutes should display "0"</t>
+  </si>
+  <si>
+    <t>Bed Mobility dropdown should display "Independent - no physical assistance, setup, or supervision in any episode"</t>
+  </si>
+  <si>
+    <t>Bed Mobility Mins per day should display "0"</t>
+  </si>
+  <si>
+    <t>Bed Mobility Total Minutes should display "0"</t>
+  </si>
+  <si>
+    <t>Eating dropdown should display "Independent - no physical assistance, setup, or supervision in any episode"</t>
+  </si>
+  <si>
+    <t>Eating Mins per day should display "0"</t>
+  </si>
+  <si>
+    <t>Eating Total Minutes should display "0"</t>
+  </si>
+  <si>
+    <t>Final Recommendation</t>
+  </si>
+  <si>
+    <t>Total Hour should display "0 Hour"</t>
+  </si>
+  <si>
+    <t>Day / Week should display "0 Day"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature Date should show todays date in MM/DD/YYYY format where todays date equals the date the script is executed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completeness bar should display 97% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icon should change from a normal cursor icon to a "No Entry" icon while hovering anywhere over the Complete Assessment Button. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicking on the button should result in no action. </t>
+  </si>
+  <si>
+    <t>Should display the signature added into the box in 'black ink'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completeness bar should display 100%. 
+Complete Assessment Button should display in full color, no longer "greyed out". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completeness bar should display 97%. 
+Nurse signature box should erase the black ink that was previously visible. 
+Complete Assessment Button should be "greyed out". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icon should change from a normal cursor icon to a "Select or Click" icon while hovering anywhere over the Complete Assessment Button. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page should prevent editing while th assessment is being saves. 
+Assessment should submit in less than 3 seconds. 
+Success Message should appear at the top of the Page, saying "Assessment Complete"
+Page 'refreshes' to show the Completed Assessment, without the following buttons: Complete Assessment, Clear signature, Accept Signature. All other fields in the Tool become locked / uneditable, displaying the values that were submitted. </t>
+  </si>
+  <si>
+    <t>Hover over the Complete Assessment Button</t>
+  </si>
+  <si>
+    <t>Try to click Complete Assessment Button</t>
+  </si>
+  <si>
+    <t>Try to click Clear Signature Button</t>
+  </si>
+  <si>
+    <t>Try to click Accept Signature Button</t>
+  </si>
+  <si>
+    <t>Add a Signature into the Nurse Signature Box</t>
+  </si>
+  <si>
+    <t>Click Accept Signature Button</t>
+  </si>
+  <si>
+    <t>Click Clear Signature Button</t>
+  </si>
+  <si>
+    <t>Test Step ID</t>
+  </si>
+  <si>
+    <t>TS012</t>
+  </si>
+  <si>
+    <t>TS013</t>
+  </si>
+  <si>
+    <t>TS014</t>
+  </si>
+  <si>
+    <t>TS015</t>
+  </si>
+  <si>
+    <t>TS016</t>
+  </si>
+  <si>
+    <t>TS017</t>
+  </si>
+  <si>
+    <t>TS018</t>
+  </si>
+  <si>
+    <t>TS019</t>
+  </si>
+  <si>
+    <t>TS020</t>
+  </si>
+  <si>
+    <t>TS021</t>
+  </si>
+  <si>
+    <t>TS022</t>
+  </si>
+  <si>
+    <t>TS023</t>
+  </si>
+  <si>
+    <t>TS024</t>
+  </si>
+  <si>
+    <t>TS025</t>
+  </si>
+  <si>
+    <t>TS026</t>
+  </si>
+  <si>
+    <t>TS027</t>
+  </si>
+  <si>
+    <t>TS028</t>
+  </si>
+  <si>
+    <t>TS029</t>
+  </si>
+  <si>
+    <t>TS030</t>
+  </si>
+  <si>
+    <t>TS031</t>
+  </si>
+  <si>
+    <t>TS032</t>
+  </si>
+  <si>
+    <t>TS033</t>
+  </si>
+  <si>
+    <t>TS034</t>
+  </si>
+  <si>
+    <t>TS035</t>
+  </si>
+  <si>
+    <t>TS036</t>
+  </si>
+  <si>
+    <t>TS037</t>
+  </si>
+  <si>
+    <t>TS038</t>
+  </si>
+  <si>
+    <t>TS039</t>
+  </si>
+  <si>
+    <t>TS040</t>
+  </si>
+  <si>
+    <t>TS041</t>
+  </si>
+  <si>
+    <t>TS042</t>
+  </si>
+  <si>
+    <t>TS043</t>
+  </si>
+  <si>
+    <t>TS044</t>
+  </si>
+  <si>
+    <t>TS045</t>
+  </si>
+  <si>
+    <t>TS046</t>
+  </si>
+  <si>
+    <t>TS047</t>
+  </si>
+  <si>
+    <t>TS048</t>
+  </si>
+  <si>
+    <t>TS049</t>
+  </si>
+  <si>
+    <t>TS050</t>
+  </si>
+  <si>
+    <t>TS051</t>
+  </si>
+  <si>
+    <t>TS052</t>
+  </si>
+  <si>
+    <t>TS053</t>
+  </si>
+  <si>
+    <t>TS054</t>
+  </si>
+  <si>
+    <t>TS055</t>
+  </si>
+  <si>
+    <t>TS056</t>
+  </si>
+  <si>
+    <t>TS057</t>
+  </si>
+  <si>
+    <t>TS058</t>
+  </si>
+  <si>
+    <t>TS059</t>
+  </si>
+  <si>
+    <t>TS060</t>
+  </si>
+  <si>
+    <t>TS061</t>
+  </si>
+  <si>
+    <t>TS062</t>
+  </si>
+  <si>
+    <t>TS063</t>
+  </si>
+  <si>
+    <t>TS064</t>
+  </si>
+  <si>
+    <t>TS065</t>
+  </si>
+  <si>
+    <t>TS066</t>
+  </si>
+  <si>
+    <t>TS067</t>
+  </si>
+  <si>
+    <t>TS068</t>
+  </si>
+  <si>
+    <t>TS069</t>
+  </si>
+  <si>
+    <t>TS070</t>
+  </si>
+  <si>
+    <t>Object Type</t>
+  </si>
+  <si>
+    <t>Locater Type</t>
+  </si>
+  <si>
+    <t>Locater Value</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Last Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Date of Assessment </t>
+  </si>
+  <si>
+    <t>Verify dropdown value for Cognitive Skills for Daily Decision Making</t>
+  </si>
+  <si>
+    <t>Verify dropdown value for Psychiatric Anxiety</t>
+  </si>
+  <si>
+    <t>Verify dropdown value for Wandering</t>
+  </si>
+  <si>
+    <t>Verify dropdown value for Psychiatric Depression</t>
+  </si>
+  <si>
+    <t>Verify dropdown value for Verbal Abuse</t>
+  </si>
+  <si>
+    <t>Verify dropdown value for Psychiatric Schizophrenia</t>
+  </si>
+  <si>
+    <t>Verify dropdown value for Physical Abuse</t>
+  </si>
+  <si>
+    <t>Verify dropdown value for Dyspnea</t>
+  </si>
+  <si>
+    <t>Verify dropdown value for Socially inappropriate or disruptive behavior</t>
+  </si>
+  <si>
+    <t>Verify dropdown value for Fatigue</t>
+  </si>
+  <si>
+    <t>Verify dropdown value for Inappropriate public sexual behavior or public disrobing</t>
+  </si>
+  <si>
+    <t>Verify dropdown value for Pain</t>
+  </si>
+  <si>
+    <t>Verify dropdown value for Resist care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the dropdown value for the Meal Preparation IADL </t>
+  </si>
+  <si>
+    <t>Verify the Weekly Total Minutes assigned to the Meal Preparation IADL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the dropdown value for the Ordinary Housework IADL </t>
+  </si>
+  <si>
+    <t>Verify the Weekly Total Minutes assigned to the Ordinary Housework IADL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the dropdown value for the Shopping IADL </t>
+  </si>
+  <si>
+    <t>Verify the Weekly Total Minutes assigned to the Shopping IADL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the dropdown value for the Bathing ADL </t>
+  </si>
+  <si>
+    <t>Verify the Mins per day assigned to the Bathing ADL</t>
+  </si>
+  <si>
+    <t>Verify the Total Minutes assigned to the Bathing ADL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the dropdown value for the Personal Hygiene ADL </t>
+  </si>
+  <si>
+    <t>Verify the Mins per day assigned to the Personal Hygiene ADL</t>
+  </si>
+  <si>
+    <t>Verify the Total Minutes assigned to the Personal Hygiene ADL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the dropdown value for the Dressing Upper Body ADL </t>
+  </si>
+  <si>
+    <t>Verify the Mins per day assigned to the Dressing Upper Body ADL</t>
+  </si>
+  <si>
+    <t>Verify the Total Minutes assigned to the Dressing Upper Body ADL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the dropdown value for the Dressing Lower Body ADL </t>
+  </si>
+  <si>
+    <t>Verify the Mins per day assigned to the Dressing Lower Body ADL</t>
+  </si>
+  <si>
+    <t>Verify the Total Minutes assigned to the Dressing Lower Body ADL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the dropdown value for the Locomotion ADL </t>
+  </si>
+  <si>
+    <t>Verify the Mins per day assigned to the Locomotion ADL</t>
+  </si>
+  <si>
+    <t>Verify the Total Minutes assigned to the Locomotion ADL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the dropdown value for the Transfer Toilet ADL </t>
+  </si>
+  <si>
+    <t>Verify the Mins per day assigned to the Transfer Toilet ADL</t>
+  </si>
+  <si>
+    <t>Verify the Total Minutes assigned to the Transfer Toilet ADL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the dropdown value for the Toileting ADL </t>
+  </si>
+  <si>
+    <t>Verify the Mins per day assigned to the Toileting ADL</t>
+  </si>
+  <si>
+    <t>Verify the Total Minutes assigned to the Toileting ADL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the dropdown value for the Bed Mobility ADL </t>
+  </si>
+  <si>
+    <t>Verify the Mins per day assigned to the Bed Mobility ADL</t>
+  </si>
+  <si>
+    <t>Verify the Total Minutes assigned to the Bed Mobility ADL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the dropdown value for the Eating ADL </t>
+  </si>
+  <si>
+    <t>Verify the Mins per day assigned to the Eating ADL</t>
+  </si>
+  <si>
+    <t>Verify the Total Minutes assigned to the Eating ADL</t>
+  </si>
+  <si>
+    <t>Verify the Total Hour</t>
+  </si>
+  <si>
+    <t>Verify the Day / Week</t>
+  </si>
+  <si>
+    <t>Verify the Signature Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Completeness Bar at the top of the assessment. </t>
+  </si>
+  <si>
+    <t>Verify the actions after clicking Complete Assessment Button.</t>
+  </si>
+  <si>
+    <t>Assert</t>
+  </si>
+  <si>
+    <t>Canvas</t>
+  </si>
+  <si>
+    <t>QA Test</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>QA Nurse</t>
+  </si>
+  <si>
+    <t>First Assessment</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Independent - decisions consistent, reasonable and safe</t>
+  </si>
+  <si>
+    <t>Not Present</t>
+  </si>
+  <si>
+    <t>Absence of symptom</t>
+  </si>
+  <si>
+    <t>No Issue of Pain</t>
+  </si>
+  <si>
+    <t>Independent - no help, setup, or supervision</t>
+  </si>
+  <si>
+    <t>Independent - no physical assistance, setup, or supervision in any episode</t>
+  </si>
+  <si>
+    <t>0 Hour</t>
+  </si>
+  <si>
+    <t>0 Day</t>
+  </si>
+  <si>
+    <t>No Entry</t>
+  </si>
+  <si>
+    <t>//input[@id='firstName']</t>
+  </si>
+  <si>
+    <t>//input[@id='lastName']</t>
+  </si>
+  <si>
+    <t>//input[@id='mrn']</t>
+  </si>
+  <si>
+    <t>//input[@id='nfloc']</t>
+  </si>
+  <si>
+    <t>//input[@id='assessmentDate']</t>
+  </si>
+  <si>
+    <t>//input[@id='assessor']</t>
+  </si>
+  <si>
+    <t>//select[@class='form-control ng-pristine ng-valid ng-not-empty ng-touched']</t>
+  </si>
+  <si>
+    <t>//div[@class='form-group']//select[@class='form-control ng-pristine ng-valid ng-not-empty ng-touched']</t>
+  </si>
+  <si>
+    <t>Click Mutual Case Dropdown</t>
+  </si>
+  <si>
+    <t>TS071</t>
+  </si>
+  <si>
+    <t>//option[@label='No']</t>
+  </si>
+  <si>
+    <t>//input[@id='mutualMRN']</t>
+  </si>
+  <si>
+    <t>TS072</t>
+  </si>
+  <si>
+    <t>TS073</t>
+  </si>
+  <si>
+    <t>TS074</t>
+  </si>
+  <si>
+    <t>TS075</t>
+  </si>
+  <si>
+    <t>TS076</t>
+  </si>
+  <si>
+    <t>TS077</t>
+  </si>
+  <si>
+    <t>TS078</t>
+  </si>
+  <si>
+    <t>TS079</t>
+  </si>
+  <si>
+    <t>TS080</t>
+  </si>
+  <si>
+    <t>TS081</t>
+  </si>
+  <si>
+    <t>TS082</t>
   </si>
 </sst>
 </file>
@@ -343,7 +1220,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,8 +1233,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -393,12 +1282,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -411,7 +1324,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -422,6 +1334,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -704,16 +1673,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -721,15 +1690,135 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
+      <c r="B2" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -740,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9327E446-000E-48FF-8238-1345EB9443AE}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,17 +1843,17 @@
     <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="54.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.453125" customWidth="1"/>
+    <col min="7" max="7" width="50.453125" style="15" customWidth="1"/>
     <col min="8" max="8" width="54.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -784,16 +1873,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -801,147 +1890,147 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="10"/>
+      <c r="G2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>79</v>
+      <c r="G6" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -949,365 +2038,419 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="C11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="2" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="B23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>7</v>
+      <c r="D27" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="169" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1320,4 +2463,1873 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}">
+  <dimension ref="A1:I72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.6328125" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="8" max="8" width="27.36328125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" customWidth="1"/>
+    <col min="10" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="H4" s="24">
+        <v>12345</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="H5" s="24">
+        <v>22</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="H6" s="27">
+        <v>44872</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="H11" s="25">
+        <v>12345</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="24">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="24">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="24">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="24">
+        <v>0</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="24">
+        <v>0</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="24">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="24">
+        <v>0</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="24">
+        <v>0</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="24">
+        <v>0</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="24">
+        <v>0</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="19"/>
+      <c r="H42" s="24">
+        <v>0</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="24">
+        <v>0</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="19"/>
+      <c r="H45" s="24">
+        <v>0</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="24">
+        <v>0</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="24">
+        <v>0</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="24">
+        <v>0</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="24">
+        <v>0</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="24">
+        <v>0</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="24">
+        <v>0</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="24">
+        <v>0</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B57" s="31"/>
+      <c r="C57" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="24">
+        <v>0</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="19"/>
+      <c r="H58" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="19"/>
+      <c r="H59" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="19"/>
+      <c r="H60" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B61" s="30"/>
+      <c r="C61" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="19"/>
+      <c r="H61" s="28">
+        <v>0.97</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B62" s="30"/>
+      <c r="C62" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B63" s="30"/>
+      <c r="C63" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="19"/>
+      <c r="H63" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="19"/>
+      <c r="H64" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B65" s="30"/>
+      <c r="C65" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="19"/>
+      <c r="H65" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B66" s="30"/>
+      <c r="C66" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="19"/>
+      <c r="H66" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B67" s="30"/>
+      <c r="C67" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="19"/>
+      <c r="H67" s="28">
+        <v>1</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="19"/>
+      <c r="H68" s="28">
+        <v>0.97</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B69" s="30"/>
+      <c r="C69" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="19"/>
+      <c r="H69" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B70" s="30"/>
+      <c r="C70" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="19"/>
+      <c r="H70" s="28">
+        <v>1</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B71" s="30"/>
+      <c r="C71" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="19"/>
+      <c r="H71" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B72" s="31"/>
+      <c r="C72" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="19"/>
+      <c r="H72" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:B57"/>
+    <mergeCell ref="B58:B72"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/helpsTool/src/test/resources/testCases/helpsToolDocUploadTC.xlsx
+++ b/helpsTool/src/test/resources/testCases/helpsToolDocUploadTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\helpsToolUploadDocs\helpsTool\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDDE0AF-BFCC-438D-B1EE-1B5C6485A2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766E77AC-46C9-4EDA-904B-C765E8AADEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="TC08" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TC01'!$D$1:$D$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TC01'!$H$1:$H$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4112" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="423">
   <si>
     <t>ObjectType</t>
   </si>
@@ -1248,9 +1248,6 @@
     <t>97%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>LI001</t>
   </si>
   <si>
@@ -1305,13 +1302,16 @@
     <t>Independent - Decisions consistent, reasonable and safe</t>
   </si>
   <si>
-    <t>No issue of Pain</t>
-  </si>
-  <si>
     <t>Independent - No help, setup, or supervision</t>
   </si>
   <si>
-    <t>Independent - No physical assistance, setup, or supervision in any episode</t>
+    <t>11/07/22</t>
+  </si>
+  <si>
+    <t>No issue of pain</t>
+  </si>
+  <si>
+    <t>current date*</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1513,6 +1513,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1522,13 +1528,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1956,7 +1971,7 @@
       <c r="A2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -1985,7 +2000,7 @@
       <c r="A3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="16" t="s">
         <v>234</v>
       </c>
@@ -2012,7 +2027,7 @@
       <c r="A4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="16" t="s">
         <v>80</v>
       </c>
@@ -2039,7 +2054,7 @@
       <c r="A5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="16" t="s">
         <v>81</v>
       </c>
@@ -2066,7 +2081,7 @@
       <c r="A6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="16" t="s">
         <v>235</v>
       </c>
@@ -2093,7 +2108,7 @@
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="16" t="s">
         <v>82</v>
       </c>
@@ -2120,7 +2135,7 @@
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="16" t="s">
         <v>83</v>
       </c>
@@ -2147,7 +2162,7 @@
       <c r="A9" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="16" t="s">
         <v>311</v>
       </c>
@@ -2174,7 +2189,7 @@
       <c r="A10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="17" t="s">
         <v>94</v>
       </c>
@@ -2201,7 +2216,7 @@
       <c r="A11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="17" t="s">
         <v>96</v>
       </c>
@@ -2228,7 +2243,7 @@
       <c r="A12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -2255,7 +2270,7 @@
       <c r="A13" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="16" t="s">
         <v>237</v>
       </c>
@@ -2280,7 +2295,7 @@
       <c r="A14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="16" t="s">
         <v>238</v>
       </c>
@@ -2305,7 +2320,7 @@
       <c r="A15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="16" t="s">
         <v>239</v>
       </c>
@@ -2330,7 +2345,7 @@
       <c r="A16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="16" t="s">
         <v>240</v>
       </c>
@@ -2355,7 +2370,7 @@
       <c r="A17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="16" t="s">
         <v>241</v>
       </c>
@@ -2380,7 +2395,7 @@
       <c r="A18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="16" t="s">
         <v>242</v>
       </c>
@@ -2405,7 +2420,7 @@
       <c r="A19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="16" t="s">
         <v>243</v>
       </c>
@@ -2430,7 +2445,7 @@
       <c r="A20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="16" t="s">
         <v>244</v>
       </c>
@@ -2455,7 +2470,7 @@
       <c r="A21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="16" t="s">
         <v>245</v>
       </c>
@@ -2480,7 +2495,7 @@
       <c r="A22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="16" t="s">
         <v>246</v>
       </c>
@@ -2505,7 +2520,7 @@
       <c r="A23" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="16" t="s">
         <v>247</v>
       </c>
@@ -2530,7 +2545,7 @@
       <c r="A24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="16" t="s">
         <v>248</v>
       </c>
@@ -2555,7 +2570,7 @@
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -2582,7 +2597,7 @@
       <c r="A26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="16" t="s">
         <v>250</v>
       </c>
@@ -2607,7 +2622,7 @@
       <c r="A27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="16" t="s">
         <v>251</v>
       </c>
@@ -2632,7 +2647,7 @@
       <c r="A28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -2657,7 +2672,7 @@
       <c r="A29" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="16" t="s">
         <v>253</v>
       </c>
@@ -2682,7 +2697,7 @@
       <c r="A30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="16" t="s">
         <v>254</v>
       </c>
@@ -2707,7 +2722,7 @@
       <c r="A31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="30" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -2734,7 +2749,7 @@
       <c r="A32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="16" t="s">
         <v>256</v>
       </c>
@@ -2759,7 +2774,7 @@
       <c r="A33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="16" t="s">
         <v>257</v>
       </c>
@@ -2784,7 +2799,7 @@
       <c r="A34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="16" t="s">
         <v>258</v>
       </c>
@@ -2809,7 +2824,7 @@
       <c r="A35" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="16" t="s">
         <v>259</v>
       </c>
@@ -2834,7 +2849,7 @@
       <c r="A36" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="16" t="s">
         <v>260</v>
       </c>
@@ -2859,7 +2874,7 @@
       <c r="A37" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="16" t="s">
         <v>261</v>
       </c>
@@ -2884,7 +2899,7 @@
       <c r="A38" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="16" t="s">
         <v>262</v>
       </c>
@@ -2909,7 +2924,7 @@
       <c r="A39" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="16" t="s">
         <v>263</v>
       </c>
@@ -2934,7 +2949,7 @@
       <c r="A40" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="16" t="s">
         <v>264</v>
       </c>
@@ -2959,7 +2974,7 @@
       <c r="A41" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="16" t="s">
         <v>265</v>
       </c>
@@ -2984,7 +2999,7 @@
       <c r="A42" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="16" t="s">
         <v>266</v>
       </c>
@@ -3009,7 +3024,7 @@
       <c r="A43" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="16" t="s">
         <v>267</v>
       </c>
@@ -3034,7 +3049,7 @@
       <c r="A44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="16" t="s">
         <v>268</v>
       </c>
@@ -3059,7 +3074,7 @@
       <c r="A45" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="16" t="s">
         <v>269</v>
       </c>
@@ -3084,7 +3099,7 @@
       <c r="A46" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="16" t="s">
         <v>270</v>
       </c>
@@ -3109,7 +3124,7 @@
       <c r="A47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="16" t="s">
         <v>271</v>
       </c>
@@ -3134,7 +3149,7 @@
       <c r="A48" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="16" t="s">
         <v>272</v>
       </c>
@@ -3159,7 +3174,7 @@
       <c r="A49" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="16" t="s">
         <v>273</v>
       </c>
@@ -3184,7 +3199,7 @@
       <c r="A50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="16" t="s">
         <v>274</v>
       </c>
@@ -3209,7 +3224,7 @@
       <c r="A51" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="16" t="s">
         <v>275</v>
       </c>
@@ -3234,7 +3249,7 @@
       <c r="A52" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="16" t="s">
         <v>276</v>
       </c>
@@ -3259,7 +3274,7 @@
       <c r="A53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="16" t="s">
         <v>277</v>
       </c>
@@ -3284,7 +3299,7 @@
       <c r="A54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="16" t="s">
         <v>278</v>
       </c>
@@ -3309,7 +3324,7 @@
       <c r="A55" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="16" t="s">
         <v>279</v>
       </c>
@@ -3334,7 +3349,7 @@
       <c r="A56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="16" t="s">
         <v>280</v>
       </c>
@@ -3359,7 +3374,7 @@
       <c r="A57" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="16" t="s">
         <v>281</v>
       </c>
@@ -3384,7 +3399,7 @@
       <c r="A58" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="30" t="s">
         <v>147</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -3411,7 +3426,7 @@
       <c r="A59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B59" s="29"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="16" t="s">
         <v>283</v>
       </c>
@@ -3436,7 +3451,7 @@
       <c r="A60" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="16" t="s">
         <v>284</v>
       </c>
@@ -3461,7 +3476,7 @@
       <c r="A61" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B61" s="29"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="16" t="s">
         <v>285</v>
       </c>
@@ -3486,7 +3501,7 @@
       <c r="A62" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="16" t="s">
         <v>159</v>
       </c>
@@ -3511,7 +3526,7 @@
       <c r="A63" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="16" t="s">
         <v>160</v>
       </c>
@@ -3536,7 +3551,7 @@
       <c r="A64" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B64" s="29"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="16" t="s">
         <v>161</v>
       </c>
@@ -3561,7 +3576,7 @@
       <c r="A65" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="29"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="16" t="s">
         <v>162</v>
       </c>
@@ -3586,7 +3601,7 @@
       <c r="A66" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="16" t="s">
         <v>163</v>
       </c>
@@ -3611,7 +3626,7 @@
       <c r="A67" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B67" s="29"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="16" t="s">
         <v>164</v>
       </c>
@@ -3636,7 +3651,7 @@
       <c r="A68" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="16" t="s">
         <v>165</v>
       </c>
@@ -3661,7 +3676,7 @@
       <c r="A69" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="29"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="16" t="s">
         <v>163</v>
       </c>
@@ -3686,7 +3701,7 @@
       <c r="A70" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B70" s="29"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="16" t="s">
         <v>164</v>
       </c>
@@ -3711,7 +3726,7 @@
       <c r="A71" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="29"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="16" t="s">
         <v>159</v>
       </c>
@@ -3736,7 +3751,7 @@
       <c r="A72" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="16" t="s">
         <v>286</v>
       </c>
@@ -3816,7 +3831,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -3840,7 +3855,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -3863,7 +3878,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -3886,7 +3901,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>48</v>
@@ -3909,7 +3924,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
@@ -3932,7 +3947,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>36</v>
@@ -3955,7 +3970,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>41</v>
@@ -3978,7 +3993,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>47</v>
@@ -4001,7 +4016,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
@@ -4024,7 +4039,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -4045,7 +4060,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>23</v>
@@ -4066,7 +4081,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>45</v>
@@ -4159,11 +4174,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4208,11 +4222,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -4237,11 +4251,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="16" t="s">
         <v>234</v>
       </c>
@@ -4264,11 +4278,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="16" t="s">
         <v>80</v>
       </c>
@@ -4291,11 +4305,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="16" t="s">
         <v>81</v>
       </c>
@@ -4318,11 +4332,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="16" t="s">
         <v>235</v>
       </c>
@@ -4338,18 +4352,18 @@
       <c r="G6" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="H6" s="24">
-        <v>44872</v>
+      <c r="H6" s="33" t="s">
+        <v>420</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="16" t="s">
         <v>82</v>
       </c>
@@ -4376,11 +4390,11 @@
       <c r="A8" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -4393,7 +4407,7 @@
         <v>381</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>91</v>
@@ -4403,11 +4417,11 @@
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E9" s="16" t="s">
@@ -4420,22 +4434,22 @@
         <v>382</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>417</v>
+      <c r="D10" s="38" t="s">
+        <v>416</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>17</v>
@@ -4453,11 +4467,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="17" t="s">
         <v>96</v>
       </c>
@@ -4484,13 +4498,13 @@
       <c r="A12" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="37" t="s">
         <v>232</v>
       </c>
       <c r="E12" s="16" t="s">
@@ -4500,10 +4514,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>418</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>419</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>98</v>
@@ -4513,11 +4527,11 @@
       <c r="A13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E13" s="16" t="s">
@@ -4540,11 +4554,11 @@
       <c r="A14" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E14" s="16" t="s">
@@ -4567,11 +4581,11 @@
       <c r="A15" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -4594,11 +4608,11 @@
       <c r="A16" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E16" s="16" t="s">
@@ -4621,11 +4635,11 @@
       <c r="A17" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E17" s="16" t="s">
@@ -4648,11 +4662,11 @@
       <c r="A18" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="32" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -4675,11 +4689,11 @@
       <c r="A19" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E19" s="16" t="s">
@@ -4702,11 +4716,11 @@
       <c r="A20" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E20" s="16" t="s">
@@ -4729,11 +4743,11 @@
       <c r="A21" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E21" s="16" t="s">
@@ -4756,11 +4770,11 @@
       <c r="A22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E22" s="16" t="s">
@@ -4783,11 +4797,11 @@
       <c r="A23" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -4800,7 +4814,7 @@
         <v>394</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>110</v>
@@ -4810,11 +4824,11 @@
       <c r="A24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E24" s="16" t="s">
@@ -4837,13 +4851,13 @@
       <c r="A25" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E25" s="16" t="s">
@@ -4856,17 +4870,17 @@
         <v>396</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="16" t="s">
         <v>250</v>
       </c>
@@ -4893,11 +4907,11 @@
       <c r="A27" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -4910,17 +4924,17 @@
         <v>397</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -4947,11 +4961,11 @@
       <c r="A29" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E29" s="16" t="s">
@@ -4964,17 +4978,17 @@
         <v>398</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="16" t="s">
         <v>254</v>
       </c>
@@ -5001,13 +5015,13 @@
       <c r="A31" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="29" t="s">
         <v>232</v>
       </c>
       <c r="E31" s="16" t="s">
@@ -5020,17 +5034,17 @@
         <v>399</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>422</v>
+        <v>299</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="16" t="s">
         <v>256</v>
       </c>
@@ -5053,11 +5067,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="16" t="s">
         <v>257</v>
       </c>
@@ -5084,11 +5098,11 @@
       <c r="A34" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="16" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="29" t="s">
         <v>232</v>
       </c>
       <c r="E34" s="16" t="s">
@@ -5101,17 +5115,17 @@
         <v>339</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>422</v>
+        <v>299</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="16" t="s">
         <v>259</v>
       </c>
@@ -5134,11 +5148,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="16" t="s">
         <v>260</v>
       </c>
@@ -5165,11 +5179,11 @@
       <c r="A37" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="16" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="29" t="s">
         <v>232</v>
       </c>
       <c r="E37" s="16" t="s">
@@ -5182,17 +5196,17 @@
         <v>342</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>422</v>
+        <v>299</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="16" t="s">
         <v>262</v>
       </c>
@@ -5215,11 +5229,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="16" t="s">
         <v>263</v>
       </c>
@@ -5246,11 +5260,11 @@
       <c r="A40" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="16" t="s">
+      <c r="B40" s="31"/>
+      <c r="C40" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="29" t="s">
         <v>232</v>
       </c>
       <c r="E40" s="16" t="s">
@@ -5263,17 +5277,17 @@
         <v>347</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>422</v>
+        <v>299</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="16" t="s">
         <v>265</v>
       </c>
@@ -5296,11 +5310,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="16" t="s">
         <v>266</v>
       </c>
@@ -5327,11 +5341,11 @@
       <c r="A43" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="16" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="29" t="s">
         <v>232</v>
       </c>
       <c r="E43" s="16" t="s">
@@ -5344,17 +5358,17 @@
         <v>348</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>422</v>
+        <v>299</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="16" t="s">
         <v>268</v>
       </c>
@@ -5377,11 +5391,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="16" t="s">
         <v>269</v>
       </c>
@@ -5408,11 +5422,11 @@
       <c r="A46" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="16" t="s">
+      <c r="B46" s="31"/>
+      <c r="C46" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="29" t="s">
         <v>232</v>
       </c>
       <c r="E46" s="16" t="s">
@@ -5425,17 +5439,17 @@
         <v>351</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>422</v>
+        <v>299</v>
       </c>
       <c r="I46" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="16" t="s">
         <v>271</v>
       </c>
@@ -5458,11 +5472,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="16" t="s">
         <v>272</v>
       </c>
@@ -5489,11 +5503,11 @@
       <c r="A49" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="16" t="s">
+      <c r="B49" s="31"/>
+      <c r="C49" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="29" t="s">
         <v>232</v>
       </c>
       <c r="E49" s="16" t="s">
@@ -5506,17 +5520,17 @@
         <v>354</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>422</v>
+        <v>299</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="16" t="s">
         <v>274</v>
       </c>
@@ -5539,11 +5553,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="16" t="s">
         <v>275</v>
       </c>
@@ -5570,11 +5584,11 @@
       <c r="A52" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="16" t="s">
+      <c r="B52" s="31"/>
+      <c r="C52" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="29" t="s">
         <v>232</v>
       </c>
       <c r="E52" s="16" t="s">
@@ -5587,17 +5601,17 @@
         <v>357</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>422</v>
+        <v>299</v>
       </c>
       <c r="I52" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="16" t="s">
         <v>277</v>
       </c>
@@ -5620,11 +5634,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="16" t="s">
         <v>278</v>
       </c>
@@ -5651,11 +5665,11 @@
       <c r="A55" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="16" t="s">
+      <c r="B55" s="31"/>
+      <c r="C55" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="29" t="s">
         <v>232</v>
       </c>
       <c r="E55" s="16" t="s">
@@ -5668,17 +5682,17 @@
         <v>361</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>422</v>
+        <v>299</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="16" t="s">
         <v>280</v>
       </c>
@@ -5701,11 +5715,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="16" t="s">
         <v>281</v>
       </c>
@@ -5728,11 +5742,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="30" t="s">
         <v>147</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -5757,11 +5771,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B59" s="29"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="16" t="s">
         <v>283</v>
       </c>
@@ -5784,11 +5798,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="16" t="s">
         <v>284</v>
       </c>
@@ -5804,18 +5818,18 @@
       <c r="G60" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="H60" s="21" t="s">
-        <v>6</v>
+      <c r="H60" s="33" t="s">
+        <v>422</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B61" s="29"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="16" t="s">
         <v>285</v>
       </c>
@@ -5831,18 +5845,18 @@
       <c r="G61" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="H61" s="25">
-        <v>0.97</v>
+      <c r="H61" s="34" t="s">
+        <v>400</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="16" t="s">
         <v>163</v>
       </c>
@@ -5865,11 +5879,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="16" t="s">
         <v>164</v>
       </c>
@@ -5885,18 +5899,18 @@
       <c r="G63" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="H63" s="25">
-        <v>1</v>
+      <c r="H63" s="34" t="s">
+        <v>6</v>
       </c>
       <c r="I63" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B64" s="29"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="16" t="s">
         <v>165</v>
       </c>
@@ -5912,18 +5926,18 @@
       <c r="G64" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="H64" s="31" t="s">
-        <v>400</v>
+      <c r="H64" s="35" t="s">
+        <v>6</v>
       </c>
       <c r="I64" s="16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B65" s="29"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="16" t="s">
         <v>163</v>
       </c>
@@ -5946,11 +5960,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="16" t="s">
         <v>164</v>
       </c>
@@ -5966,18 +5980,18 @@
       <c r="G66" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="H66" s="31" t="s">
-        <v>401</v>
+      <c r="H66" s="28" t="s">
+        <v>6</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B67" s="29"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="16" t="s">
         <v>380</v>
       </c>
@@ -6025,7 +6039,7 @@
       </c>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>223</v>
       </c>
@@ -6050,7 +6064,7 @@
       </c>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>224</v>
       </c>
@@ -6075,7 +6089,7 @@
       </c>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" ht="39" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>225</v>
       </c>
@@ -6101,14 +6115,7 @@
       <c r="I71" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D71" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Dropdown"/>
-        <filter val="Select"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="H1:H71" xr:uid="{407B753E-D1E8-46BC-BF70-35AA7CA269EC}"/>
   <mergeCells count="5">
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="B12:B24"/>
@@ -6176,7 +6183,7 @@
       <c r="A2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -6205,7 +6212,7 @@
       <c r="A3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="16" t="s">
         <v>234</v>
       </c>
@@ -6232,7 +6239,7 @@
       <c r="A4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="16" t="s">
         <v>80</v>
       </c>
@@ -6259,7 +6266,7 @@
       <c r="A5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="16" t="s">
         <v>81</v>
       </c>
@@ -6286,7 +6293,7 @@
       <c r="A6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="16" t="s">
         <v>235</v>
       </c>
@@ -6313,7 +6320,7 @@
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="16" t="s">
         <v>82</v>
       </c>
@@ -6340,7 +6347,7 @@
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="16" t="s">
         <v>83</v>
       </c>
@@ -6367,7 +6374,7 @@
       <c r="A9" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="16" t="s">
         <v>311</v>
       </c>
@@ -6394,7 +6401,7 @@
       <c r="A10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="17" t="s">
         <v>94</v>
       </c>
@@ -6421,7 +6428,7 @@
       <c r="A11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="17" t="s">
         <v>96</v>
       </c>
@@ -6448,7 +6455,7 @@
       <c r="A12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -6475,7 +6482,7 @@
       <c r="A13" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="16" t="s">
         <v>237</v>
       </c>
@@ -6500,7 +6507,7 @@
       <c r="A14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="16" t="s">
         <v>238</v>
       </c>
@@ -6525,7 +6532,7 @@
       <c r="A15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="16" t="s">
         <v>239</v>
       </c>
@@ -6550,7 +6557,7 @@
       <c r="A16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="16" t="s">
         <v>240</v>
       </c>
@@ -6575,7 +6582,7 @@
       <c r="A17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="16" t="s">
         <v>241</v>
       </c>
@@ -6600,7 +6607,7 @@
       <c r="A18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="16" t="s">
         <v>242</v>
       </c>
@@ -6625,7 +6632,7 @@
       <c r="A19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="16" t="s">
         <v>243</v>
       </c>
@@ -6650,7 +6657,7 @@
       <c r="A20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="16" t="s">
         <v>244</v>
       </c>
@@ -6675,7 +6682,7 @@
       <c r="A21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="16" t="s">
         <v>245</v>
       </c>
@@ -6700,7 +6707,7 @@
       <c r="A22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="16" t="s">
         <v>246</v>
       </c>
@@ -6725,7 +6732,7 @@
       <c r="A23" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="16" t="s">
         <v>247</v>
       </c>
@@ -6750,7 +6757,7 @@
       <c r="A24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="16" t="s">
         <v>248</v>
       </c>
@@ -6775,7 +6782,7 @@
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -6802,7 +6809,7 @@
       <c r="A26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="16" t="s">
         <v>250</v>
       </c>
@@ -6827,7 +6834,7 @@
       <c r="A27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="16" t="s">
         <v>251</v>
       </c>
@@ -6852,7 +6859,7 @@
       <c r="A28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -6877,7 +6884,7 @@
       <c r="A29" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="16" t="s">
         <v>253</v>
       </c>
@@ -6902,7 +6909,7 @@
       <c r="A30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="16" t="s">
         <v>254</v>
       </c>
@@ -6927,7 +6934,7 @@
       <c r="A31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="30" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -6954,7 +6961,7 @@
       <c r="A32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="16" t="s">
         <v>256</v>
       </c>
@@ -6979,7 +6986,7 @@
       <c r="A33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="16" t="s">
         <v>257</v>
       </c>
@@ -7004,7 +7011,7 @@
       <c r="A34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="16" t="s">
         <v>258</v>
       </c>
@@ -7029,7 +7036,7 @@
       <c r="A35" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="16" t="s">
         <v>259</v>
       </c>
@@ -7054,7 +7061,7 @@
       <c r="A36" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="16" t="s">
         <v>260</v>
       </c>
@@ -7079,7 +7086,7 @@
       <c r="A37" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="16" t="s">
         <v>261</v>
       </c>
@@ -7104,7 +7111,7 @@
       <c r="A38" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="16" t="s">
         <v>262</v>
       </c>
@@ -7129,7 +7136,7 @@
       <c r="A39" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="16" t="s">
         <v>263</v>
       </c>
@@ -7154,7 +7161,7 @@
       <c r="A40" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="16" t="s">
         <v>264</v>
       </c>
@@ -7179,7 +7186,7 @@
       <c r="A41" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="16" t="s">
         <v>265</v>
       </c>
@@ -7204,7 +7211,7 @@
       <c r="A42" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="16" t="s">
         <v>266</v>
       </c>
@@ -7229,7 +7236,7 @@
       <c r="A43" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="16" t="s">
         <v>267</v>
       </c>
@@ -7254,7 +7261,7 @@
       <c r="A44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="16" t="s">
         <v>268</v>
       </c>
@@ -7279,7 +7286,7 @@
       <c r="A45" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="16" t="s">
         <v>269</v>
       </c>
@@ -7304,7 +7311,7 @@
       <c r="A46" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="16" t="s">
         <v>270</v>
       </c>
@@ -7329,7 +7336,7 @@
       <c r="A47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="16" t="s">
         <v>271</v>
       </c>
@@ -7354,7 +7361,7 @@
       <c r="A48" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="16" t="s">
         <v>272</v>
       </c>
@@ -7379,7 +7386,7 @@
       <c r="A49" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="16" t="s">
         <v>273</v>
       </c>
@@ -7404,7 +7411,7 @@
       <c r="A50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="16" t="s">
         <v>274</v>
       </c>
@@ -7429,7 +7436,7 @@
       <c r="A51" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="16" t="s">
         <v>275</v>
       </c>
@@ -7454,7 +7461,7 @@
       <c r="A52" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="16" t="s">
         <v>276</v>
       </c>
@@ -7479,7 +7486,7 @@
       <c r="A53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="16" t="s">
         <v>277</v>
       </c>
@@ -7504,7 +7511,7 @@
       <c r="A54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="16" t="s">
         <v>278</v>
       </c>
@@ -7529,7 +7536,7 @@
       <c r="A55" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="16" t="s">
         <v>279</v>
       </c>
@@ -7554,7 +7561,7 @@
       <c r="A56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="16" t="s">
         <v>280</v>
       </c>
@@ -7579,7 +7586,7 @@
       <c r="A57" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="16" t="s">
         <v>281</v>
       </c>
@@ -7604,7 +7611,7 @@
       <c r="A58" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="30" t="s">
         <v>147</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -7631,7 +7638,7 @@
       <c r="A59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B59" s="29"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="16" t="s">
         <v>283</v>
       </c>
@@ -7656,7 +7663,7 @@
       <c r="A60" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="16" t="s">
         <v>284</v>
       </c>
@@ -7681,7 +7688,7 @@
       <c r="A61" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B61" s="29"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="16" t="s">
         <v>285</v>
       </c>
@@ -7706,7 +7713,7 @@
       <c r="A62" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="16" t="s">
         <v>159</v>
       </c>
@@ -7731,7 +7738,7 @@
       <c r="A63" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="16" t="s">
         <v>160</v>
       </c>
@@ -7756,7 +7763,7 @@
       <c r="A64" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B64" s="29"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="16" t="s">
         <v>161</v>
       </c>
@@ -7781,7 +7788,7 @@
       <c r="A65" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="29"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="16" t="s">
         <v>162</v>
       </c>
@@ -7806,7 +7813,7 @@
       <c r="A66" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="16" t="s">
         <v>163</v>
       </c>
@@ -7831,7 +7838,7 @@
       <c r="A67" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B67" s="29"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="16" t="s">
         <v>164</v>
       </c>
@@ -7856,7 +7863,7 @@
       <c r="A68" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="16" t="s">
         <v>165</v>
       </c>
@@ -7881,7 +7888,7 @@
       <c r="A69" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="29"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="16" t="s">
         <v>163</v>
       </c>
@@ -7906,7 +7913,7 @@
       <c r="A70" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B70" s="29"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="16" t="s">
         <v>164</v>
       </c>
@@ -7931,7 +7938,7 @@
       <c r="A71" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="29"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="16" t="s">
         <v>159</v>
       </c>
@@ -7956,7 +7963,7 @@
       <c r="A72" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="16" t="s">
         <v>286</v>
       </c>
@@ -8044,7 +8051,7 @@
       <c r="A2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -8073,7 +8080,7 @@
       <c r="A3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="16" t="s">
         <v>234</v>
       </c>
@@ -8100,7 +8107,7 @@
       <c r="A4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="16" t="s">
         <v>80</v>
       </c>
@@ -8127,7 +8134,7 @@
       <c r="A5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="16" t="s">
         <v>81</v>
       </c>
@@ -8154,7 +8161,7 @@
       <c r="A6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="16" t="s">
         <v>235</v>
       </c>
@@ -8181,7 +8188,7 @@
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="16" t="s">
         <v>82</v>
       </c>
@@ -8208,7 +8215,7 @@
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="16" t="s">
         <v>83</v>
       </c>
@@ -8235,7 +8242,7 @@
       <c r="A9" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="16" t="s">
         <v>311</v>
       </c>
@@ -8262,7 +8269,7 @@
       <c r="A10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="17" t="s">
         <v>94</v>
       </c>
@@ -8289,7 +8296,7 @@
       <c r="A11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="17" t="s">
         <v>96</v>
       </c>
@@ -8316,7 +8323,7 @@
       <c r="A12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -8343,7 +8350,7 @@
       <c r="A13" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="16" t="s">
         <v>237</v>
       </c>
@@ -8368,7 +8375,7 @@
       <c r="A14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="16" t="s">
         <v>238</v>
       </c>
@@ -8393,7 +8400,7 @@
       <c r="A15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="16" t="s">
         <v>239</v>
       </c>
@@ -8418,7 +8425,7 @@
       <c r="A16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="16" t="s">
         <v>240</v>
       </c>
@@ -8443,7 +8450,7 @@
       <c r="A17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="16" t="s">
         <v>241</v>
       </c>
@@ -8468,7 +8475,7 @@
       <c r="A18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="16" t="s">
         <v>242</v>
       </c>
@@ -8493,7 +8500,7 @@
       <c r="A19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="16" t="s">
         <v>243</v>
       </c>
@@ -8518,7 +8525,7 @@
       <c r="A20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="16" t="s">
         <v>244</v>
       </c>
@@ -8543,7 +8550,7 @@
       <c r="A21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="16" t="s">
         <v>245</v>
       </c>
@@ -8568,7 +8575,7 @@
       <c r="A22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="16" t="s">
         <v>246</v>
       </c>
@@ -8593,7 +8600,7 @@
       <c r="A23" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="16" t="s">
         <v>247</v>
       </c>
@@ -8618,7 +8625,7 @@
       <c r="A24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="16" t="s">
         <v>248</v>
       </c>
@@ -8643,7 +8650,7 @@
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -8670,7 +8677,7 @@
       <c r="A26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="16" t="s">
         <v>250</v>
       </c>
@@ -8695,7 +8702,7 @@
       <c r="A27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="16" t="s">
         <v>251</v>
       </c>
@@ -8720,7 +8727,7 @@
       <c r="A28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -8745,7 +8752,7 @@
       <c r="A29" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="16" t="s">
         <v>253</v>
       </c>
@@ -8770,7 +8777,7 @@
       <c r="A30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="16" t="s">
         <v>254</v>
       </c>
@@ -8795,7 +8802,7 @@
       <c r="A31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="30" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -8822,7 +8829,7 @@
       <c r="A32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="16" t="s">
         <v>256</v>
       </c>
@@ -8847,7 +8854,7 @@
       <c r="A33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="16" t="s">
         <v>257</v>
       </c>
@@ -8872,7 +8879,7 @@
       <c r="A34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="16" t="s">
         <v>258</v>
       </c>
@@ -8897,7 +8904,7 @@
       <c r="A35" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="16" t="s">
         <v>259</v>
       </c>
@@ -8922,7 +8929,7 @@
       <c r="A36" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="16" t="s">
         <v>260</v>
       </c>
@@ -8947,7 +8954,7 @@
       <c r="A37" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="16" t="s">
         <v>261</v>
       </c>
@@ -8972,7 +8979,7 @@
       <c r="A38" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="16" t="s">
         <v>262</v>
       </c>
@@ -8997,7 +9004,7 @@
       <c r="A39" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="16" t="s">
         <v>263</v>
       </c>
@@ -9022,7 +9029,7 @@
       <c r="A40" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="16" t="s">
         <v>264</v>
       </c>
@@ -9047,7 +9054,7 @@
       <c r="A41" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="16" t="s">
         <v>265</v>
       </c>
@@ -9072,7 +9079,7 @@
       <c r="A42" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="16" t="s">
         <v>266</v>
       </c>
@@ -9097,7 +9104,7 @@
       <c r="A43" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="16" t="s">
         <v>267</v>
       </c>
@@ -9122,7 +9129,7 @@
       <c r="A44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="16" t="s">
         <v>268</v>
       </c>
@@ -9147,7 +9154,7 @@
       <c r="A45" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="16" t="s">
         <v>269</v>
       </c>
@@ -9172,7 +9179,7 @@
       <c r="A46" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="16" t="s">
         <v>270</v>
       </c>
@@ -9197,7 +9204,7 @@
       <c r="A47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="16" t="s">
         <v>271</v>
       </c>
@@ -9222,7 +9229,7 @@
       <c r="A48" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="16" t="s">
         <v>272</v>
       </c>
@@ -9247,7 +9254,7 @@
       <c r="A49" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="16" t="s">
         <v>273</v>
       </c>
@@ -9272,7 +9279,7 @@
       <c r="A50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="16" t="s">
         <v>274</v>
       </c>
@@ -9297,7 +9304,7 @@
       <c r="A51" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="16" t="s">
         <v>275</v>
       </c>
@@ -9322,7 +9329,7 @@
       <c r="A52" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="16" t="s">
         <v>276</v>
       </c>
@@ -9347,7 +9354,7 @@
       <c r="A53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="16" t="s">
         <v>277</v>
       </c>
@@ -9372,7 +9379,7 @@
       <c r="A54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="16" t="s">
         <v>278</v>
       </c>
@@ -9397,7 +9404,7 @@
       <c r="A55" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="16" t="s">
         <v>279</v>
       </c>
@@ -9422,7 +9429,7 @@
       <c r="A56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="16" t="s">
         <v>280</v>
       </c>
@@ -9447,7 +9454,7 @@
       <c r="A57" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="16" t="s">
         <v>281</v>
       </c>
@@ -9472,7 +9479,7 @@
       <c r="A58" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="30" t="s">
         <v>147</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -9499,7 +9506,7 @@
       <c r="A59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B59" s="29"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="16" t="s">
         <v>283</v>
       </c>
@@ -9524,7 +9531,7 @@
       <c r="A60" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="16" t="s">
         <v>284</v>
       </c>
@@ -9549,7 +9556,7 @@
       <c r="A61" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B61" s="29"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="16" t="s">
         <v>285</v>
       </c>
@@ -9574,7 +9581,7 @@
       <c r="A62" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="16" t="s">
         <v>159</v>
       </c>
@@ -9599,7 +9606,7 @@
       <c r="A63" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="16" t="s">
         <v>160</v>
       </c>
@@ -9624,7 +9631,7 @@
       <c r="A64" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B64" s="29"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="16" t="s">
         <v>161</v>
       </c>
@@ -9649,7 +9656,7 @@
       <c r="A65" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="29"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="16" t="s">
         <v>162</v>
       </c>
@@ -9674,7 +9681,7 @@
       <c r="A66" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="16" t="s">
         <v>163</v>
       </c>
@@ -9699,7 +9706,7 @@
       <c r="A67" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B67" s="29"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="16" t="s">
         <v>164</v>
       </c>
@@ -9724,7 +9731,7 @@
       <c r="A68" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="16" t="s">
         <v>165</v>
       </c>
@@ -9749,7 +9756,7 @@
       <c r="A69" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="29"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="16" t="s">
         <v>163</v>
       </c>
@@ -9774,7 +9781,7 @@
       <c r="A70" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B70" s="29"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="16" t="s">
         <v>164</v>
       </c>
@@ -9799,7 +9806,7 @@
       <c r="A71" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="29"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="16" t="s">
         <v>159</v>
       </c>
@@ -9824,7 +9831,7 @@
       <c r="A72" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="16" t="s">
         <v>286</v>
       </c>
@@ -9912,7 +9919,7 @@
       <c r="A2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -9941,7 +9948,7 @@
       <c r="A3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="16" t="s">
         <v>234</v>
       </c>
@@ -9968,7 +9975,7 @@
       <c r="A4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="16" t="s">
         <v>80</v>
       </c>
@@ -9995,7 +10002,7 @@
       <c r="A5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="16" t="s">
         <v>81</v>
       </c>
@@ -10022,7 +10029,7 @@
       <c r="A6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="16" t="s">
         <v>235</v>
       </c>
@@ -10049,7 +10056,7 @@
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="16" t="s">
         <v>82</v>
       </c>
@@ -10076,7 +10083,7 @@
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="16" t="s">
         <v>83</v>
       </c>
@@ -10103,7 +10110,7 @@
       <c r="A9" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="16" t="s">
         <v>311</v>
       </c>
@@ -10130,7 +10137,7 @@
       <c r="A10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="17" t="s">
         <v>94</v>
       </c>
@@ -10157,7 +10164,7 @@
       <c r="A11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="17" t="s">
         <v>96</v>
       </c>
@@ -10184,7 +10191,7 @@
       <c r="A12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -10211,7 +10218,7 @@
       <c r="A13" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="16" t="s">
         <v>237</v>
       </c>
@@ -10236,7 +10243,7 @@
       <c r="A14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="16" t="s">
         <v>238</v>
       </c>
@@ -10261,7 +10268,7 @@
       <c r="A15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="16" t="s">
         <v>239</v>
       </c>
@@ -10286,7 +10293,7 @@
       <c r="A16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="16" t="s">
         <v>240</v>
       </c>
@@ -10311,7 +10318,7 @@
       <c r="A17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="16" t="s">
         <v>241</v>
       </c>
@@ -10336,7 +10343,7 @@
       <c r="A18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="16" t="s">
         <v>242</v>
       </c>
@@ -10361,7 +10368,7 @@
       <c r="A19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="16" t="s">
         <v>243</v>
       </c>
@@ -10386,7 +10393,7 @@
       <c r="A20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="16" t="s">
         <v>244</v>
       </c>
@@ -10411,7 +10418,7 @@
       <c r="A21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="16" t="s">
         <v>245</v>
       </c>
@@ -10436,7 +10443,7 @@
       <c r="A22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="16" t="s">
         <v>246</v>
       </c>
@@ -10461,7 +10468,7 @@
       <c r="A23" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="16" t="s">
         <v>247</v>
       </c>
@@ -10486,7 +10493,7 @@
       <c r="A24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="16" t="s">
         <v>248</v>
       </c>
@@ -10511,7 +10518,7 @@
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -10538,7 +10545,7 @@
       <c r="A26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="16" t="s">
         <v>250</v>
       </c>
@@ -10563,7 +10570,7 @@
       <c r="A27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="16" t="s">
         <v>251</v>
       </c>
@@ -10588,7 +10595,7 @@
       <c r="A28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -10613,7 +10620,7 @@
       <c r="A29" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="16" t="s">
         <v>253</v>
       </c>
@@ -10638,7 +10645,7 @@
       <c r="A30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="16" t="s">
         <v>254</v>
       </c>
@@ -10663,7 +10670,7 @@
       <c r="A31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="30" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -10690,7 +10697,7 @@
       <c r="A32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="16" t="s">
         <v>256</v>
       </c>
@@ -10715,7 +10722,7 @@
       <c r="A33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="16" t="s">
         <v>257</v>
       </c>
@@ -10740,7 +10747,7 @@
       <c r="A34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="16" t="s">
         <v>258</v>
       </c>
@@ -10765,7 +10772,7 @@
       <c r="A35" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="16" t="s">
         <v>259</v>
       </c>
@@ -10790,7 +10797,7 @@
       <c r="A36" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="16" t="s">
         <v>260</v>
       </c>
@@ -10815,7 +10822,7 @@
       <c r="A37" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="16" t="s">
         <v>261</v>
       </c>
@@ -10840,7 +10847,7 @@
       <c r="A38" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="16" t="s">
         <v>262</v>
       </c>
@@ -10865,7 +10872,7 @@
       <c r="A39" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="16" t="s">
         <v>263</v>
       </c>
@@ -10890,7 +10897,7 @@
       <c r="A40" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="16" t="s">
         <v>264</v>
       </c>
@@ -10915,7 +10922,7 @@
       <c r="A41" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="16" t="s">
         <v>265</v>
       </c>
@@ -10940,7 +10947,7 @@
       <c r="A42" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="16" t="s">
         <v>266</v>
       </c>
@@ -10965,7 +10972,7 @@
       <c r="A43" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="16" t="s">
         <v>267</v>
       </c>
@@ -10990,7 +10997,7 @@
       <c r="A44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="16" t="s">
         <v>268</v>
       </c>
@@ -11015,7 +11022,7 @@
       <c r="A45" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="16" t="s">
         <v>269</v>
       </c>
@@ -11040,7 +11047,7 @@
       <c r="A46" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="16" t="s">
         <v>270</v>
       </c>
@@ -11065,7 +11072,7 @@
       <c r="A47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="16" t="s">
         <v>271</v>
       </c>
@@ -11090,7 +11097,7 @@
       <c r="A48" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="16" t="s">
         <v>272</v>
       </c>
@@ -11115,7 +11122,7 @@
       <c r="A49" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="16" t="s">
         <v>273</v>
       </c>
@@ -11140,7 +11147,7 @@
       <c r="A50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="16" t="s">
         <v>274</v>
       </c>
@@ -11165,7 +11172,7 @@
       <c r="A51" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="16" t="s">
         <v>275</v>
       </c>
@@ -11190,7 +11197,7 @@
       <c r="A52" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="16" t="s">
         <v>276</v>
       </c>
@@ -11215,7 +11222,7 @@
       <c r="A53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="16" t="s">
         <v>277</v>
       </c>
@@ -11240,7 +11247,7 @@
       <c r="A54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="16" t="s">
         <v>278</v>
       </c>
@@ -11265,7 +11272,7 @@
       <c r="A55" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="16" t="s">
         <v>279</v>
       </c>
@@ -11290,7 +11297,7 @@
       <c r="A56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="16" t="s">
         <v>280</v>
       </c>
@@ -11315,7 +11322,7 @@
       <c r="A57" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="16" t="s">
         <v>281</v>
       </c>
@@ -11340,7 +11347,7 @@
       <c r="A58" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="30" t="s">
         <v>147</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -11367,7 +11374,7 @@
       <c r="A59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B59" s="29"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="16" t="s">
         <v>283</v>
       </c>
@@ -11392,7 +11399,7 @@
       <c r="A60" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="16" t="s">
         <v>284</v>
       </c>
@@ -11417,7 +11424,7 @@
       <c r="A61" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B61" s="29"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="16" t="s">
         <v>285</v>
       </c>
@@ -11442,7 +11449,7 @@
       <c r="A62" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="16" t="s">
         <v>159</v>
       </c>
@@ -11467,7 +11474,7 @@
       <c r="A63" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="16" t="s">
         <v>160</v>
       </c>
@@ -11492,7 +11499,7 @@
       <c r="A64" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B64" s="29"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="16" t="s">
         <v>161</v>
       </c>
@@ -11517,7 +11524,7 @@
       <c r="A65" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="29"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="16" t="s">
         <v>162</v>
       </c>
@@ -11542,7 +11549,7 @@
       <c r="A66" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="16" t="s">
         <v>163</v>
       </c>
@@ -11567,7 +11574,7 @@
       <c r="A67" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B67" s="29"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="16" t="s">
         <v>164</v>
       </c>
@@ -11592,7 +11599,7 @@
       <c r="A68" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="16" t="s">
         <v>165</v>
       </c>
@@ -11617,7 +11624,7 @@
       <c r="A69" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="29"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="16" t="s">
         <v>163</v>
       </c>
@@ -11642,7 +11649,7 @@
       <c r="A70" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B70" s="29"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="16" t="s">
         <v>164</v>
       </c>
@@ -11667,7 +11674,7 @@
       <c r="A71" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="29"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="16" t="s">
         <v>159</v>
       </c>
@@ -11692,7 +11699,7 @@
       <c r="A72" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="16" t="s">
         <v>286</v>
       </c>
@@ -11780,7 +11787,7 @@
       <c r="A2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -11809,7 +11816,7 @@
       <c r="A3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="16" t="s">
         <v>234</v>
       </c>
@@ -11836,7 +11843,7 @@
       <c r="A4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="16" t="s">
         <v>80</v>
       </c>
@@ -11863,7 +11870,7 @@
       <c r="A5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="16" t="s">
         <v>81</v>
       </c>
@@ -11890,7 +11897,7 @@
       <c r="A6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="16" t="s">
         <v>235</v>
       </c>
@@ -11917,7 +11924,7 @@
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="16" t="s">
         <v>82</v>
       </c>
@@ -11944,7 +11951,7 @@
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="16" t="s">
         <v>83</v>
       </c>
@@ -11971,7 +11978,7 @@
       <c r="A9" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="16" t="s">
         <v>311</v>
       </c>
@@ -11998,7 +12005,7 @@
       <c r="A10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="17" t="s">
         <v>94</v>
       </c>
@@ -12025,7 +12032,7 @@
       <c r="A11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="17" t="s">
         <v>96</v>
       </c>
@@ -12052,7 +12059,7 @@
       <c r="A12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -12079,7 +12086,7 @@
       <c r="A13" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="16" t="s">
         <v>237</v>
       </c>
@@ -12104,7 +12111,7 @@
       <c r="A14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="16" t="s">
         <v>238</v>
       </c>
@@ -12129,7 +12136,7 @@
       <c r="A15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="16" t="s">
         <v>239</v>
       </c>
@@ -12154,7 +12161,7 @@
       <c r="A16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="16" t="s">
         <v>240</v>
       </c>
@@ -12179,7 +12186,7 @@
       <c r="A17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="16" t="s">
         <v>241</v>
       </c>
@@ -12204,7 +12211,7 @@
       <c r="A18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="16" t="s">
         <v>242</v>
       </c>
@@ -12229,7 +12236,7 @@
       <c r="A19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="16" t="s">
         <v>243</v>
       </c>
@@ -12254,7 +12261,7 @@
       <c r="A20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="16" t="s">
         <v>244</v>
       </c>
@@ -12279,7 +12286,7 @@
       <c r="A21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="16" t="s">
         <v>245</v>
       </c>
@@ -12304,7 +12311,7 @@
       <c r="A22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="16" t="s">
         <v>246</v>
       </c>
@@ -12329,7 +12336,7 @@
       <c r="A23" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="16" t="s">
         <v>247</v>
       </c>
@@ -12354,7 +12361,7 @@
       <c r="A24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="16" t="s">
         <v>248</v>
       </c>
@@ -12379,7 +12386,7 @@
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -12406,7 +12413,7 @@
       <c r="A26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="16" t="s">
         <v>250</v>
       </c>
@@ -12431,7 +12438,7 @@
       <c r="A27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="16" t="s">
         <v>251</v>
       </c>
@@ -12456,7 +12463,7 @@
       <c r="A28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -12481,7 +12488,7 @@
       <c r="A29" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="16" t="s">
         <v>253</v>
       </c>
@@ -12506,7 +12513,7 @@
       <c r="A30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="16" t="s">
         <v>254</v>
       </c>
@@ -12531,7 +12538,7 @@
       <c r="A31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="30" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -12558,7 +12565,7 @@
       <c r="A32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="16" t="s">
         <v>256</v>
       </c>
@@ -12583,7 +12590,7 @@
       <c r="A33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="16" t="s">
         <v>257</v>
       </c>
@@ -12608,7 +12615,7 @@
       <c r="A34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="16" t="s">
         <v>258</v>
       </c>
@@ -12633,7 +12640,7 @@
       <c r="A35" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="16" t="s">
         <v>259</v>
       </c>
@@ -12658,7 +12665,7 @@
       <c r="A36" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="16" t="s">
         <v>260</v>
       </c>
@@ -12683,7 +12690,7 @@
       <c r="A37" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="16" t="s">
         <v>261</v>
       </c>
@@ -12708,7 +12715,7 @@
       <c r="A38" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="16" t="s">
         <v>262</v>
       </c>
@@ -12733,7 +12740,7 @@
       <c r="A39" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="16" t="s">
         <v>263</v>
       </c>
@@ -12758,7 +12765,7 @@
       <c r="A40" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="16" t="s">
         <v>264</v>
       </c>
@@ -12783,7 +12790,7 @@
       <c r="A41" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="16" t="s">
         <v>265</v>
       </c>
@@ -12808,7 +12815,7 @@
       <c r="A42" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="16" t="s">
         <v>266</v>
       </c>
@@ -12833,7 +12840,7 @@
       <c r="A43" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="16" t="s">
         <v>267</v>
       </c>
@@ -12858,7 +12865,7 @@
       <c r="A44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="16" t="s">
         <v>268</v>
       </c>
@@ -12883,7 +12890,7 @@
       <c r="A45" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="16" t="s">
         <v>269</v>
       </c>
@@ -12908,7 +12915,7 @@
       <c r="A46" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="16" t="s">
         <v>270</v>
       </c>
@@ -12933,7 +12940,7 @@
       <c r="A47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="16" t="s">
         <v>271</v>
       </c>
@@ -12958,7 +12965,7 @@
       <c r="A48" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="16" t="s">
         <v>272</v>
       </c>
@@ -12983,7 +12990,7 @@
       <c r="A49" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="16" t="s">
         <v>273</v>
       </c>
@@ -13008,7 +13015,7 @@
       <c r="A50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="16" t="s">
         <v>274</v>
       </c>
@@ -13033,7 +13040,7 @@
       <c r="A51" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="16" t="s">
         <v>275</v>
       </c>
@@ -13058,7 +13065,7 @@
       <c r="A52" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="16" t="s">
         <v>276</v>
       </c>
@@ -13083,7 +13090,7 @@
       <c r="A53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="16" t="s">
         <v>277</v>
       </c>
@@ -13108,7 +13115,7 @@
       <c r="A54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="16" t="s">
         <v>278</v>
       </c>
@@ -13133,7 +13140,7 @@
       <c r="A55" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="16" t="s">
         <v>279</v>
       </c>
@@ -13158,7 +13165,7 @@
       <c r="A56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="16" t="s">
         <v>280</v>
       </c>
@@ -13183,7 +13190,7 @@
       <c r="A57" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="16" t="s">
         <v>281</v>
       </c>
@@ -13208,7 +13215,7 @@
       <c r="A58" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="30" t="s">
         <v>147</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -13235,7 +13242,7 @@
       <c r="A59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B59" s="29"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="16" t="s">
         <v>283</v>
       </c>
@@ -13260,7 +13267,7 @@
       <c r="A60" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="16" t="s">
         <v>284</v>
       </c>
@@ -13285,7 +13292,7 @@
       <c r="A61" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B61" s="29"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="16" t="s">
         <v>285</v>
       </c>
@@ -13310,7 +13317,7 @@
       <c r="A62" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="16" t="s">
         <v>159</v>
       </c>
@@ -13335,7 +13342,7 @@
       <c r="A63" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="16" t="s">
         <v>160</v>
       </c>
@@ -13360,7 +13367,7 @@
       <c r="A64" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B64" s="29"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="16" t="s">
         <v>161</v>
       </c>
@@ -13385,7 +13392,7 @@
       <c r="A65" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="29"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="16" t="s">
         <v>162</v>
       </c>
@@ -13410,7 +13417,7 @@
       <c r="A66" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="16" t="s">
         <v>163</v>
       </c>
@@ -13435,7 +13442,7 @@
       <c r="A67" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B67" s="29"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="16" t="s">
         <v>164</v>
       </c>
@@ -13460,7 +13467,7 @@
       <c r="A68" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="16" t="s">
         <v>165</v>
       </c>
@@ -13485,7 +13492,7 @@
       <c r="A69" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="29"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="16" t="s">
         <v>163</v>
       </c>
@@ -13510,7 +13517,7 @@
       <c r="A70" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B70" s="29"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="16" t="s">
         <v>164</v>
       </c>
@@ -13535,7 +13542,7 @@
       <c r="A71" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="29"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="16" t="s">
         <v>159</v>
       </c>
@@ -13560,7 +13567,7 @@
       <c r="A72" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="16" t="s">
         <v>286</v>
       </c>
@@ -13648,7 +13655,7 @@
       <c r="A2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -13677,7 +13684,7 @@
       <c r="A3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="16" t="s">
         <v>234</v>
       </c>
@@ -13704,7 +13711,7 @@
       <c r="A4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="16" t="s">
         <v>80</v>
       </c>
@@ -13731,7 +13738,7 @@
       <c r="A5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="16" t="s">
         <v>81</v>
       </c>
@@ -13758,7 +13765,7 @@
       <c r="A6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="16" t="s">
         <v>235</v>
       </c>
@@ -13785,7 +13792,7 @@
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="16" t="s">
         <v>82</v>
       </c>
@@ -13812,7 +13819,7 @@
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="16" t="s">
         <v>83</v>
       </c>
@@ -13839,7 +13846,7 @@
       <c r="A9" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="16" t="s">
         <v>311</v>
       </c>
@@ -13866,7 +13873,7 @@
       <c r="A10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="17" t="s">
         <v>94</v>
       </c>
@@ -13893,7 +13900,7 @@
       <c r="A11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="17" t="s">
         <v>96</v>
       </c>
@@ -13920,7 +13927,7 @@
       <c r="A12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -13947,7 +13954,7 @@
       <c r="A13" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="16" t="s">
         <v>237</v>
       </c>
@@ -13972,7 +13979,7 @@
       <c r="A14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="16" t="s">
         <v>238</v>
       </c>
@@ -13997,7 +14004,7 @@
       <c r="A15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="16" t="s">
         <v>239</v>
       </c>
@@ -14022,7 +14029,7 @@
       <c r="A16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="16" t="s">
         <v>240</v>
       </c>
@@ -14047,7 +14054,7 @@
       <c r="A17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="16" t="s">
         <v>241</v>
       </c>
@@ -14072,7 +14079,7 @@
       <c r="A18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="16" t="s">
         <v>242</v>
       </c>
@@ -14097,7 +14104,7 @@
       <c r="A19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="16" t="s">
         <v>243</v>
       </c>
@@ -14122,7 +14129,7 @@
       <c r="A20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="16" t="s">
         <v>244</v>
       </c>
@@ -14147,7 +14154,7 @@
       <c r="A21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="16" t="s">
         <v>245</v>
       </c>
@@ -14172,7 +14179,7 @@
       <c r="A22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="16" t="s">
         <v>246</v>
       </c>
@@ -14197,7 +14204,7 @@
       <c r="A23" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="16" t="s">
         <v>247</v>
       </c>
@@ -14222,7 +14229,7 @@
       <c r="A24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="16" t="s">
         <v>248</v>
       </c>
@@ -14247,7 +14254,7 @@
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -14274,7 +14281,7 @@
       <c r="A26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="16" t="s">
         <v>250</v>
       </c>
@@ -14299,7 +14306,7 @@
       <c r="A27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="16" t="s">
         <v>251</v>
       </c>
@@ -14324,7 +14331,7 @@
       <c r="A28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -14349,7 +14356,7 @@
       <c r="A29" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="16" t="s">
         <v>253</v>
       </c>
@@ -14374,7 +14381,7 @@
       <c r="A30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="16" t="s">
         <v>254</v>
       </c>
@@ -14399,7 +14406,7 @@
       <c r="A31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="30" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -14426,7 +14433,7 @@
       <c r="A32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="16" t="s">
         <v>256</v>
       </c>
@@ -14451,7 +14458,7 @@
       <c r="A33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="16" t="s">
         <v>257</v>
       </c>
@@ -14476,7 +14483,7 @@
       <c r="A34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="16" t="s">
         <v>258</v>
       </c>
@@ -14501,7 +14508,7 @@
       <c r="A35" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="16" t="s">
         <v>259</v>
       </c>
@@ -14526,7 +14533,7 @@
       <c r="A36" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="16" t="s">
         <v>260</v>
       </c>
@@ -14551,7 +14558,7 @@
       <c r="A37" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="16" t="s">
         <v>261</v>
       </c>
@@ -14576,7 +14583,7 @@
       <c r="A38" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="16" t="s">
         <v>262</v>
       </c>
@@ -14601,7 +14608,7 @@
       <c r="A39" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="16" t="s">
         <v>263</v>
       </c>
@@ -14626,7 +14633,7 @@
       <c r="A40" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="16" t="s">
         <v>264</v>
       </c>
@@ -14651,7 +14658,7 @@
       <c r="A41" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="16" t="s">
         <v>265</v>
       </c>
@@ -14676,7 +14683,7 @@
       <c r="A42" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="16" t="s">
         <v>266</v>
       </c>
@@ -14701,7 +14708,7 @@
       <c r="A43" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="16" t="s">
         <v>267</v>
       </c>
@@ -14726,7 +14733,7 @@
       <c r="A44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="16" t="s">
         <v>268</v>
       </c>
@@ -14751,7 +14758,7 @@
       <c r="A45" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="16" t="s">
         <v>269</v>
       </c>
@@ -14776,7 +14783,7 @@
       <c r="A46" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="16" t="s">
         <v>270</v>
       </c>
@@ -14801,7 +14808,7 @@
       <c r="A47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="16" t="s">
         <v>271</v>
       </c>
@@ -14826,7 +14833,7 @@
       <c r="A48" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="16" t="s">
         <v>272</v>
       </c>
@@ -14851,7 +14858,7 @@
       <c r="A49" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="16" t="s">
         <v>273</v>
       </c>
@@ -14876,7 +14883,7 @@
       <c r="A50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="16" t="s">
         <v>274</v>
       </c>
@@ -14901,7 +14908,7 @@
       <c r="A51" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="16" t="s">
         <v>275</v>
       </c>
@@ -14926,7 +14933,7 @@
       <c r="A52" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="16" t="s">
         <v>276</v>
       </c>
@@ -14951,7 +14958,7 @@
       <c r="A53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="16" t="s">
         <v>277</v>
       </c>
@@ -14976,7 +14983,7 @@
       <c r="A54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="16" t="s">
         <v>278</v>
       </c>
@@ -15001,7 +15008,7 @@
       <c r="A55" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="16" t="s">
         <v>279</v>
       </c>
@@ -15026,7 +15033,7 @@
       <c r="A56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="16" t="s">
         <v>280</v>
       </c>
@@ -15051,7 +15058,7 @@
       <c r="A57" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="16" t="s">
         <v>281</v>
       </c>
@@ -15076,7 +15083,7 @@
       <c r="A58" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="30" t="s">
         <v>147</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -15103,7 +15110,7 @@
       <c r="A59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B59" s="29"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="16" t="s">
         <v>283</v>
       </c>
@@ -15128,7 +15135,7 @@
       <c r="A60" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="16" t="s">
         <v>284</v>
       </c>
@@ -15153,7 +15160,7 @@
       <c r="A61" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B61" s="29"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="16" t="s">
         <v>285</v>
       </c>
@@ -15178,7 +15185,7 @@
       <c r="A62" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="16" t="s">
         <v>159</v>
       </c>
@@ -15203,7 +15210,7 @@
       <c r="A63" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="16" t="s">
         <v>160</v>
       </c>
@@ -15228,7 +15235,7 @@
       <c r="A64" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B64" s="29"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="16" t="s">
         <v>161</v>
       </c>
@@ -15253,7 +15260,7 @@
       <c r="A65" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="29"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="16" t="s">
         <v>162</v>
       </c>
@@ -15278,7 +15285,7 @@
       <c r="A66" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="16" t="s">
         <v>163</v>
       </c>
@@ -15303,7 +15310,7 @@
       <c r="A67" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B67" s="29"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="16" t="s">
         <v>164</v>
       </c>
@@ -15328,7 +15335,7 @@
       <c r="A68" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="16" t="s">
         <v>165</v>
       </c>
@@ -15353,7 +15360,7 @@
       <c r="A69" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="29"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="16" t="s">
         <v>163</v>
       </c>
@@ -15378,7 +15385,7 @@
       <c r="A70" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B70" s="29"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="16" t="s">
         <v>164</v>
       </c>
@@ -15403,7 +15410,7 @@
       <c r="A71" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="29"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="16" t="s">
         <v>159</v>
       </c>
@@ -15428,7 +15435,7 @@
       <c r="A72" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="16" t="s">
         <v>286</v>
       </c>
@@ -15516,7 +15523,7 @@
       <c r="A2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -15545,7 +15552,7 @@
       <c r="A3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="16" t="s">
         <v>234</v>
       </c>
@@ -15572,7 +15579,7 @@
       <c r="A4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="16" t="s">
         <v>80</v>
       </c>
@@ -15599,7 +15606,7 @@
       <c r="A5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="16" t="s">
         <v>81</v>
       </c>
@@ -15626,7 +15633,7 @@
       <c r="A6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="16" t="s">
         <v>235</v>
       </c>
@@ -15653,7 +15660,7 @@
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="16" t="s">
         <v>82</v>
       </c>
@@ -15680,7 +15687,7 @@
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="16" t="s">
         <v>83</v>
       </c>
@@ -15707,7 +15714,7 @@
       <c r="A9" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="16" t="s">
         <v>311</v>
       </c>
@@ -15734,7 +15741,7 @@
       <c r="A10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="17" t="s">
         <v>94</v>
       </c>
@@ -15761,7 +15768,7 @@
       <c r="A11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="17" t="s">
         <v>96</v>
       </c>
@@ -15788,7 +15795,7 @@
       <c r="A12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -15815,7 +15822,7 @@
       <c r="A13" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="16" t="s">
         <v>237</v>
       </c>
@@ -15840,7 +15847,7 @@
       <c r="A14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="16" t="s">
         <v>238</v>
       </c>
@@ -15865,7 +15872,7 @@
       <c r="A15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="16" t="s">
         <v>239</v>
       </c>
@@ -15890,7 +15897,7 @@
       <c r="A16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="16" t="s">
         <v>240</v>
       </c>
@@ -15915,7 +15922,7 @@
       <c r="A17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="16" t="s">
         <v>241</v>
       </c>
@@ -15940,7 +15947,7 @@
       <c r="A18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="16" t="s">
         <v>242</v>
       </c>
@@ -15965,7 +15972,7 @@
       <c r="A19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="16" t="s">
         <v>243</v>
       </c>
@@ -15990,7 +15997,7 @@
       <c r="A20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="16" t="s">
         <v>244</v>
       </c>
@@ -16015,7 +16022,7 @@
       <c r="A21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="16" t="s">
         <v>245</v>
       </c>
@@ -16040,7 +16047,7 @@
       <c r="A22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="16" t="s">
         <v>246</v>
       </c>
@@ -16065,7 +16072,7 @@
       <c r="A23" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="16" t="s">
         <v>247</v>
       </c>
@@ -16090,7 +16097,7 @@
       <c r="A24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="16" t="s">
         <v>248</v>
       </c>
@@ -16115,7 +16122,7 @@
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -16142,7 +16149,7 @@
       <c r="A26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="16" t="s">
         <v>250</v>
       </c>
@@ -16167,7 +16174,7 @@
       <c r="A27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="16" t="s">
         <v>251</v>
       </c>
@@ -16192,7 +16199,7 @@
       <c r="A28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -16217,7 +16224,7 @@
       <c r="A29" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="16" t="s">
         <v>253</v>
       </c>
@@ -16242,7 +16249,7 @@
       <c r="A30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="16" t="s">
         <v>254</v>
       </c>
@@ -16267,7 +16274,7 @@
       <c r="A31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="30" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -16294,7 +16301,7 @@
       <c r="A32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="16" t="s">
         <v>256</v>
       </c>
@@ -16319,7 +16326,7 @@
       <c r="A33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="16" t="s">
         <v>257</v>
       </c>
@@ -16344,7 +16351,7 @@
       <c r="A34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="16" t="s">
         <v>258</v>
       </c>
@@ -16369,7 +16376,7 @@
       <c r="A35" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="16" t="s">
         <v>259</v>
       </c>
@@ -16394,7 +16401,7 @@
       <c r="A36" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="16" t="s">
         <v>260</v>
       </c>
@@ -16419,7 +16426,7 @@
       <c r="A37" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="16" t="s">
         <v>261</v>
       </c>
@@ -16444,7 +16451,7 @@
       <c r="A38" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="16" t="s">
         <v>262</v>
       </c>
@@ -16469,7 +16476,7 @@
       <c r="A39" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="16" t="s">
         <v>263</v>
       </c>
@@ -16494,7 +16501,7 @@
       <c r="A40" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="16" t="s">
         <v>264</v>
       </c>
@@ -16519,7 +16526,7 @@
       <c r="A41" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="16" t="s">
         <v>265</v>
       </c>
@@ -16544,7 +16551,7 @@
       <c r="A42" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="16" t="s">
         <v>266</v>
       </c>
@@ -16569,7 +16576,7 @@
       <c r="A43" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="16" t="s">
         <v>267</v>
       </c>
@@ -16594,7 +16601,7 @@
       <c r="A44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="16" t="s">
         <v>268</v>
       </c>
@@ -16619,7 +16626,7 @@
       <c r="A45" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="16" t="s">
         <v>269</v>
       </c>
@@ -16644,7 +16651,7 @@
       <c r="A46" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="16" t="s">
         <v>270</v>
       </c>
@@ -16669,7 +16676,7 @@
       <c r="A47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="16" t="s">
         <v>271</v>
       </c>
@@ -16694,7 +16701,7 @@
       <c r="A48" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="16" t="s">
         <v>272</v>
       </c>
@@ -16719,7 +16726,7 @@
       <c r="A49" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="16" t="s">
         <v>273</v>
       </c>
@@ -16744,7 +16751,7 @@
       <c r="A50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="16" t="s">
         <v>274</v>
       </c>
@@ -16769,7 +16776,7 @@
       <c r="A51" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="16" t="s">
         <v>275</v>
       </c>
@@ -16794,7 +16801,7 @@
       <c r="A52" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="16" t="s">
         <v>276</v>
       </c>
@@ -16819,7 +16826,7 @@
       <c r="A53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="16" t="s">
         <v>277</v>
       </c>
@@ -16844,7 +16851,7 @@
       <c r="A54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="16" t="s">
         <v>278</v>
       </c>
@@ -16869,7 +16876,7 @@
       <c r="A55" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="16" t="s">
         <v>279</v>
       </c>
@@ -16894,7 +16901,7 @@
       <c r="A56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="16" t="s">
         <v>280</v>
       </c>
@@ -16919,7 +16926,7 @@
       <c r="A57" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="16" t="s">
         <v>281</v>
       </c>
@@ -16944,7 +16951,7 @@
       <c r="A58" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="30" t="s">
         <v>147</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -16971,7 +16978,7 @@
       <c r="A59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B59" s="29"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="16" t="s">
         <v>283</v>
       </c>
@@ -16996,7 +17003,7 @@
       <c r="A60" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="16" t="s">
         <v>284</v>
       </c>
@@ -17021,7 +17028,7 @@
       <c r="A61" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B61" s="29"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="16" t="s">
         <v>285</v>
       </c>
@@ -17046,7 +17053,7 @@
       <c r="A62" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="16" t="s">
         <v>159</v>
       </c>
@@ -17071,7 +17078,7 @@
       <c r="A63" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="16" t="s">
         <v>160</v>
       </c>
@@ -17096,7 +17103,7 @@
       <c r="A64" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B64" s="29"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="16" t="s">
         <v>161</v>
       </c>
@@ -17121,7 +17128,7 @@
       <c r="A65" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="29"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="16" t="s">
         <v>162</v>
       </c>
@@ -17146,7 +17153,7 @@
       <c r="A66" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="16" t="s">
         <v>163</v>
       </c>
@@ -17171,7 +17178,7 @@
       <c r="A67" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B67" s="29"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="16" t="s">
         <v>164</v>
       </c>
@@ -17196,7 +17203,7 @@
       <c r="A68" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="16" t="s">
         <v>165</v>
       </c>
@@ -17221,7 +17228,7 @@
       <c r="A69" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="29"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="16" t="s">
         <v>163</v>
       </c>
@@ -17246,7 +17253,7 @@
       <c r="A70" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B70" s="29"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="16" t="s">
         <v>164</v>
       </c>
@@ -17271,7 +17278,7 @@
       <c r="A71" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="29"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="16" t="s">
         <v>159</v>
       </c>
@@ -17296,7 +17303,7 @@
       <c r="A72" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="16" t="s">
         <v>286</v>
       </c>
